--- a/モデリング/ダイヤ/ダイヤ.xlsx
+++ b/モデリング/ダイヤ/ダイヤ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wattz\Documents\BVE\日比谷線\モデリング\ダイヤ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4776C4CA-3CDD-4396-BAC0-90EE9D654454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F2E8AA-32FE-4065-98CD-0733780FEEF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CCDDCA3E-ED1C-4E77-8EA6-52E9521BDB8A}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="234">
   <si>
     <t>北千住</t>
     <rPh sb="0" eb="3">
@@ -530,16 +530,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>俺入れる</t>
-    <rPh sb="0" eb="1">
-      <t>オレ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>10</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1254,6 +1244,26 @@
   </si>
   <si>
     <t>中目黒</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>でも</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.txt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>03-124</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12:35:00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>t</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1636,10 +1646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B519C33-B239-41F0-B66D-795ED5BE4052}">
-  <dimension ref="A1:Z28"/>
+  <dimension ref="A1:AC28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I8" workbookViewId="0">
-      <selection activeCell="W29" sqref="W29"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AE9" sqref="AE9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1655,7 +1665,7 @@
     <col min="10" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1734,8 +1744,14 @@
       <c r="Z1" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AB1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1761,7 +1777,7 @@
         <v>28</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>68</v>
@@ -1773,34 +1789,40 @@
         <v>82</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="U2" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="W2" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="Y2" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
+        <v>209</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1820,52 +1842,58 @@
         <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="K3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="M3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="U3" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="V3" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="W3" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="X3" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AB3" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1888,46 +1916,52 @@
         <v>46</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="M4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="S4" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="T4" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="T4" s="1" t="s">
-        <v>193</v>
-      </c>
       <c r="U4" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="W4" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="X4" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>178</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="AB4" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1947,46 +1981,46 @@
         <v>15</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="K5" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="M5" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="S5" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="T5" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="T5" s="1" t="s">
-        <v>195</v>
-      </c>
       <c r="W5" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="X5" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2006,7 +2040,7 @@
         <v>41</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>48</v>
@@ -2018,49 +2052,49 @@
         <v>55</v>
       </c>
       <c r="K6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="M6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="O6" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="P6" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="P6" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="Q6" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S6" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="T6" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="T6" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="V6" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="W6" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="X6" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="Y6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -2089,46 +2123,46 @@
         <v>57</v>
       </c>
       <c r="K7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="M7" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="S7" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="T7" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="T7" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="W7" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="X7" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="Y7" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -2154,46 +2188,46 @@
         <v>59</v>
       </c>
       <c r="K8" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="M8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="N8" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="O8" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="S8" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="T8" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="T8" s="1" t="s">
-        <v>201</v>
-      </c>
       <c r="W8" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Y8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -2219,34 +2253,34 @@
         <v>61</v>
       </c>
       <c r="K9" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="L9" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="M9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="N9" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="S9" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="T9" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="Y9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -2272,34 +2306,34 @@
         <v>65</v>
       </c>
       <c r="K10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="L10" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="M10" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="N10" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="S10" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="T10" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="Y10" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>62</v>
       </c>
@@ -2325,31 +2359,31 @@
         <v>48</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -2366,19 +2400,19 @@
         <v>71</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -2401,13 +2435,13 @@
         <v>74</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -2418,13 +2452,13 @@
         <v>23</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>72</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>72</v>
@@ -2436,7 +2470,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -2444,7 +2478,7 @@
         <v>13040</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>73</v>
@@ -2453,22 +2487,22 @@
         <v>85</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.45">
@@ -2482,22 +2516,22 @@
         <v>50</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>50</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S17" s="1" t="s">
         <v>50</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.45">
@@ -2546,19 +2580,19 @@
         <v>87</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q19" s="1" t="s">
         <v>51</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="U19" s="1" t="s">
         <v>87</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.45">
@@ -2578,7 +2612,7 @@
         <v>78</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q20" s="1" t="s">
         <v>52</v>
@@ -2604,13 +2638,13 @@
         <v>53</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="S21" s="1" t="s">
         <v>53</v>
@@ -2622,7 +2656,7 @@
         <v>84</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.45">
@@ -2641,31 +2675,28 @@
       <c r="K22" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="M22" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="O22" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.45">
       <c r="M23" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.45">
@@ -2673,10 +2704,10 @@
         <v>69</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.45">
@@ -2684,22 +2715,22 @@
         <v>70</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.45">
       <c r="W26" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.45">
       <c r="W27" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.45">
       <c r="W28" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -2710,10 +2741,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{200A6E3F-5272-4F01-9E07-FD953135BECE}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2723,7 +2754,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -2731,7 +2762,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -2739,7 +2770,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -2795,12 +2826,12 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
@@ -2808,7 +2839,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
@@ -2816,10 +2847,10 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
@@ -2827,10 +2858,10 @@
         <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
@@ -2841,7 +2872,7 @@
         <v>20003</v>
       </c>
       <c r="C15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
@@ -2852,7 +2883,20 @@
         <v>13040</v>
       </c>
       <c r="C16" t="s">
-        <v>227</v>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>230</v>
+      </c>
+      <c r="B18" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
